--- a/Post_Flight_Datasheet_03_06_V4.xlsx
+++ b/Post_Flight_Datasheet_03_06_V4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\03_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willem van Lynden\Desktop\Universiteit\Bachelor year 3\Q3\SVV\B08_SVV_Flight_Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6A5EE3-FEAD-44EE-AA15-CD76D7050F3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="11640" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -392,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -509,7 +510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -798,29 +805,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3"/>
-    <col min="2" max="2" width="8.1796875"/>
+    <col min="2" max="2" width="8.140625"/>
     <col min="3" max="3" width="7"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="7"/>
-    <col min="14" max="1025" width="8.54296875"/>
+    <col min="14" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -834,7 +841,7 @@
         <v>0.65902777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -846,13 +853,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -860,7 +867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -869,7 +876,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -878,7 +885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -887,7 +894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -898,7 +905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -909,7 +916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -920,7 +927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -931,7 +938,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -942,7 +949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -953,7 +960,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -961,12 +968,12 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -974,7 +981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1116,16 +1123,16 @@
         <v>530</v>
       </c>
       <c r="H30" s="2">
-        <v>390</v>
+        <v>556</v>
       </c>
       <c r="I30" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1229,23 +1236,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1320,7 +1327,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1334,7 +1341,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1348,7 +1355,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1362,7 +1369,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1376,7 +1383,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1390,7 +1397,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1404,17 +1411,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1579,7 +1586,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1618,7 +1625,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1657,7 +1664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -1735,7 +1742,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1752,17 +1759,17 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -1770,7 +1777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1784,7 +1791,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1941,17 +1948,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -1973,7 +1980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>57</v>
       </c>
